--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Mif-Cd74.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Mif-Cd74.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>11.2923095099509</v>
+        <v>12.89761366666667</v>
       </c>
       <c r="H2">
-        <v>11.2923095099509</v>
+        <v>38.692841</v>
       </c>
       <c r="I2">
-        <v>0.1193530566711765</v>
+        <v>0.1295258291743358</v>
       </c>
       <c r="J2">
-        <v>0.1193530566711765</v>
+        <v>0.1295258291743358</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.1430223545417</v>
+        <v>141.0704656666667</v>
       </c>
       <c r="N2">
-        <v>10.1430223545417</v>
+        <v>423.211397</v>
       </c>
       <c r="O2">
-        <v>0.004884501871924219</v>
+        <v>0.05525296614535039</v>
       </c>
       <c r="P2">
-        <v>0.004884501871924219</v>
+        <v>0.05525296614535039</v>
       </c>
       <c r="Q2">
-        <v>114.5381477938358</v>
+        <v>1819.472365945431</v>
       </c>
       <c r="R2">
-        <v>114.5381477938358</v>
+        <v>16375.25129350888</v>
       </c>
       <c r="S2">
-        <v>0.0005829802287302389</v>
+        <v>0.007156686254318014</v>
       </c>
       <c r="T2">
-        <v>0.0005829802287302389</v>
+        <v>0.007156686254318014</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>11.2923095099509</v>
+        <v>12.89761366666667</v>
       </c>
       <c r="H3">
-        <v>11.2923095099509</v>
+        <v>38.692841</v>
       </c>
       <c r="I3">
-        <v>0.1193530566711765</v>
+        <v>0.1295258291743358</v>
       </c>
       <c r="J3">
-        <v>0.1193530566711765</v>
+        <v>0.1295258291743358</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.28844877114016</v>
+        <v>3.309554666666667</v>
       </c>
       <c r="N3">
-        <v>3.28844877114016</v>
+        <v>9.928663999999999</v>
       </c>
       <c r="O3">
-        <v>0.001583594476765478</v>
+        <v>0.001296250856544298</v>
       </c>
       <c r="P3">
-        <v>0.001583594476765478</v>
+        <v>0.001296250856544298</v>
       </c>
       <c r="Q3">
-        <v>37.13418133133238</v>
+        <v>42.68535749938044</v>
       </c>
       <c r="R3">
-        <v>37.13418133133238</v>
+        <v>384.168217494424</v>
       </c>
       <c r="S3">
-        <v>0.0001890068413295522</v>
+        <v>0.0001678979670118433</v>
       </c>
       <c r="T3">
-        <v>0.0001890068413295522</v>
+        <v>0.0001678979670118433</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>11.2923095099509</v>
+        <v>12.89761366666667</v>
       </c>
       <c r="H4">
-        <v>11.2923095099509</v>
+        <v>38.692841</v>
       </c>
       <c r="I4">
-        <v>0.1193530566711765</v>
+        <v>0.1295258291743358</v>
       </c>
       <c r="J4">
-        <v>0.1193530566711765</v>
+        <v>0.1295258291743358</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2062.61463490881</v>
+        <v>2408.188354666666</v>
       </c>
       <c r="N4">
-        <v>2062.61463490881</v>
+        <v>7224.565063999999</v>
       </c>
       <c r="O4">
-        <v>0.9932784029366947</v>
+        <v>0.9432133721485603</v>
       </c>
       <c r="P4">
-        <v>0.9932784029366947</v>
+        <v>0.9432133721485604</v>
       </c>
       <c r="Q4">
-        <v>23291.68285714466</v>
+        <v>31059.88303505631</v>
       </c>
       <c r="R4">
-        <v>23291.68285714466</v>
+        <v>279538.9473155068</v>
       </c>
       <c r="S4">
-        <v>0.118550813515959</v>
+        <v>0.1221704941158636</v>
       </c>
       <c r="T4">
-        <v>0.118550813515959</v>
+        <v>0.1221704941158637</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>11.2923095099509</v>
+        <v>12.89761366666667</v>
       </c>
       <c r="H5">
-        <v>11.2923095099509</v>
+        <v>38.692841</v>
       </c>
       <c r="I5">
-        <v>0.1193530566711765</v>
+        <v>0.1295258291743358</v>
       </c>
       <c r="J5">
-        <v>0.1193530566711765</v>
+        <v>0.1295258291743358</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.5264126174293851</v>
+        <v>0.6061513333333334</v>
       </c>
       <c r="N5">
-        <v>0.5264126174293851</v>
+        <v>1.818454</v>
       </c>
       <c r="O5">
-        <v>0.0002535007146156032</v>
+        <v>0.0002374108495449545</v>
       </c>
       <c r="P5">
-        <v>0.0002535007146156032</v>
+        <v>0.0002374108495449545</v>
       </c>
       <c r="Q5">
-        <v>5.94441420595599</v>
+        <v>7.817905720868223</v>
       </c>
       <c r="R5">
-        <v>5.94441420595599</v>
+        <v>70.361151487814</v>
       </c>
       <c r="S5">
-        <v>3.025608515769983E-05</v>
+        <v>3.075083714229371E-05</v>
       </c>
       <c r="T5">
-        <v>3.025608515769983E-05</v>
+        <v>3.075083714229371E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>17.6828174929184</v>
+        <v>17.69923533333333</v>
       </c>
       <c r="H6">
-        <v>17.6828174929184</v>
+        <v>53.097706</v>
       </c>
       <c r="I6">
-        <v>0.1868969599601009</v>
+        <v>0.1777466895466555</v>
       </c>
       <c r="J6">
-        <v>0.1868969599601009</v>
+        <v>0.1777466895466556</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>10.1430223545417</v>
+        <v>141.0704656666667</v>
       </c>
       <c r="N6">
-        <v>10.1430223545417</v>
+        <v>423.211397</v>
       </c>
       <c r="O6">
-        <v>0.004884501871924219</v>
+        <v>0.05525296614535039</v>
       </c>
       <c r="P6">
-        <v>0.004884501871924219</v>
+        <v>0.05525296614535039</v>
       </c>
       <c r="Q6">
-        <v>179.3572131219523</v>
+        <v>2496.839370417254</v>
       </c>
       <c r="R6">
-        <v>179.3572131219523</v>
+        <v>22471.55433375528</v>
       </c>
       <c r="S6">
-        <v>0.0009128985507820588</v>
+        <v>0.009821031819969465</v>
       </c>
       <c r="T6">
-        <v>0.0009128985507820588</v>
+        <v>0.009821031819969466</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>17.6828174929184</v>
+        <v>17.69923533333333</v>
       </c>
       <c r="H7">
-        <v>17.6828174929184</v>
+        <v>53.097706</v>
       </c>
       <c r="I7">
-        <v>0.1868969599601009</v>
+        <v>0.1777466895466555</v>
       </c>
       <c r="J7">
-        <v>0.1868969599601009</v>
+        <v>0.1777466895466556</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.28844877114016</v>
+        <v>3.309554666666667</v>
       </c>
       <c r="N7">
-        <v>3.28844877114016</v>
+        <v>9.928663999999999</v>
       </c>
       <c r="O7">
-        <v>0.001583594476765478</v>
+        <v>0.001296250856544298</v>
       </c>
       <c r="P7">
-        <v>0.001583594476765478</v>
+        <v>0.001296250856544298</v>
       </c>
       <c r="Q7">
-        <v>58.14903945488324</v>
+        <v>58.57658689386489</v>
       </c>
       <c r="R7">
-        <v>58.14903945488324</v>
+        <v>527.189282044784</v>
       </c>
       <c r="S7">
-        <v>0.0002959689935170746</v>
+        <v>0.0002304042985727657</v>
       </c>
       <c r="T7">
-        <v>0.0002959689935170746</v>
+        <v>0.0002304042985727658</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>17.6828174929184</v>
+        <v>17.69923533333333</v>
       </c>
       <c r="H8">
-        <v>17.6828174929184</v>
+        <v>53.097706</v>
       </c>
       <c r="I8">
-        <v>0.1868969599601009</v>
+        <v>0.1777466895466555</v>
       </c>
       <c r="J8">
-        <v>0.1868969599601009</v>
+        <v>0.1777466895466556</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2062.61463490881</v>
+        <v>2408.188354666666</v>
       </c>
       <c r="N8">
-        <v>2062.61463490881</v>
+        <v>7224.565063999999</v>
       </c>
       <c r="O8">
-        <v>0.9932784029366947</v>
+        <v>0.9432133721485603</v>
       </c>
       <c r="P8">
-        <v>0.9932784029366947</v>
+        <v>0.9432133721485604</v>
       </c>
       <c r="Q8">
-        <v>36472.838147315</v>
+        <v>42623.09241623813</v>
       </c>
       <c r="R8">
-        <v>36472.838147315</v>
+        <v>383607.8317461432</v>
       </c>
       <c r="S8">
-        <v>0.1856407139028924</v>
+        <v>0.1676530544355442</v>
       </c>
       <c r="T8">
-        <v>0.1856407139028924</v>
+        <v>0.1676530544355443</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>17.6828174929184</v>
+        <v>17.69923533333333</v>
       </c>
       <c r="H9">
-        <v>17.6828174929184</v>
+        <v>53.097706</v>
       </c>
       <c r="I9">
-        <v>0.1868969599601009</v>
+        <v>0.1777466895466555</v>
       </c>
       <c r="J9">
-        <v>0.1868969599601009</v>
+        <v>0.1777466895466556</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.5264126174293851</v>
+        <v>0.6061513333333334</v>
       </c>
       <c r="N9">
-        <v>0.5264126174293851</v>
+        <v>1.818454</v>
       </c>
       <c r="O9">
-        <v>0.0002535007146156032</v>
+        <v>0.0002374108495449545</v>
       </c>
       <c r="P9">
-        <v>0.0002535007146156032</v>
+        <v>0.0002374108495449545</v>
       </c>
       <c r="Q9">
-        <v>9.308458239973291</v>
+        <v>10.72841509628044</v>
       </c>
       <c r="R9">
-        <v>9.308458239973291</v>
+        <v>96.555735866524</v>
       </c>
       <c r="S9">
-        <v>4.737851290936937E-05</v>
+        <v>4.219899256907477E-05</v>
       </c>
       <c r="T9">
-        <v>4.737851290936937E-05</v>
+        <v>4.219899256907477E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>27.7671893980133</v>
+        <v>30.16920766666667</v>
       </c>
       <c r="H10">
-        <v>27.7671893980133</v>
+        <v>90.507623</v>
       </c>
       <c r="I10">
-        <v>0.2934828280167094</v>
+        <v>0.302977879439589</v>
       </c>
       <c r="J10">
-        <v>0.2934828280167094</v>
+        <v>0.302977879439589</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>10.1430223545417</v>
+        <v>141.0704656666667</v>
       </c>
       <c r="N10">
-        <v>10.1430223545417</v>
+        <v>423.211397</v>
       </c>
       <c r="O10">
-        <v>0.004884501871924219</v>
+        <v>0.05525296614535039</v>
       </c>
       <c r="P10">
-        <v>0.004884501871924219</v>
+        <v>0.05525296614535039</v>
       </c>
       <c r="Q10">
-        <v>281.6432227868422</v>
+        <v>4255.984174331037</v>
       </c>
       <c r="R10">
-        <v>281.6432227868422</v>
+        <v>38303.85756897933</v>
       </c>
       <c r="S10">
-        <v>0.001433517422825231</v>
+        <v>0.01674042651546566</v>
       </c>
       <c r="T10">
-        <v>0.001433517422825231</v>
+        <v>0.01674042651546566</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>27.7671893980133</v>
+        <v>30.16920766666667</v>
       </c>
       <c r="H11">
-        <v>27.7671893980133</v>
+        <v>90.507623</v>
       </c>
       <c r="I11">
-        <v>0.2934828280167094</v>
+        <v>0.302977879439589</v>
       </c>
       <c r="J11">
-        <v>0.2934828280167094</v>
+        <v>0.302977879439589</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>3.28844877114016</v>
+        <v>3.309554666666667</v>
       </c>
       <c r="N11">
-        <v>3.28844877114016</v>
+        <v>9.928663999999999</v>
       </c>
       <c r="O11">
-        <v>0.001583594476765478</v>
+        <v>0.001296250856544298</v>
       </c>
       <c r="P11">
-        <v>0.001583594476765478</v>
+        <v>0.001296250856544298</v>
       </c>
       <c r="Q11">
-        <v>91.31097985391291</v>
+        <v>99.84664202285244</v>
       </c>
       <c r="R11">
-        <v>91.31097985391291</v>
+        <v>898.6197782056719</v>
       </c>
       <c r="S11">
-        <v>0.0004647577854727738</v>
+        <v>0.0003927353357375424</v>
       </c>
       <c r="T11">
-        <v>0.0004647577854727738</v>
+        <v>0.0003927353357375424</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>27.7671893980133</v>
+        <v>30.16920766666667</v>
       </c>
       <c r="H12">
-        <v>27.7671893980133</v>
+        <v>90.507623</v>
       </c>
       <c r="I12">
-        <v>0.2934828280167094</v>
+        <v>0.302977879439589</v>
       </c>
       <c r="J12">
-        <v>0.2934828280167094</v>
+        <v>0.302977879439589</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2062.61463490881</v>
+        <v>2408.188354666666</v>
       </c>
       <c r="N12">
-        <v>2062.61463490881</v>
+        <v>7224.565063999999</v>
       </c>
       <c r="O12">
-        <v>0.9932784029366947</v>
+        <v>0.9432133721485603</v>
       </c>
       <c r="P12">
-        <v>0.9932784029366947</v>
+        <v>0.9432133721485604</v>
       </c>
       <c r="Q12">
-        <v>57273.01122262698</v>
+        <v>72653.13457238697</v>
       </c>
       <c r="R12">
-        <v>57273.01122262698</v>
+        <v>653878.2111514828</v>
       </c>
       <c r="S12">
-        <v>0.2915101547017818</v>
+        <v>0.2857727873526347</v>
       </c>
       <c r="T12">
-        <v>0.2915101547017818</v>
+        <v>0.2857727873526347</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>27.7671893980133</v>
+        <v>30.16920766666667</v>
       </c>
       <c r="H13">
-        <v>27.7671893980133</v>
+        <v>90.507623</v>
       </c>
       <c r="I13">
-        <v>0.2934828280167094</v>
+        <v>0.302977879439589</v>
       </c>
       <c r="J13">
-        <v>0.2934828280167094</v>
+        <v>0.302977879439589</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.5264126174293851</v>
+        <v>0.6061513333333334</v>
       </c>
       <c r="N13">
-        <v>0.5264126174293851</v>
+        <v>1.818454</v>
       </c>
       <c r="O13">
-        <v>0.0002535007146156032</v>
+        <v>0.0002374108495449545</v>
       </c>
       <c r="P13">
-        <v>0.0002535007146156032</v>
+        <v>0.0002374108495449545</v>
       </c>
       <c r="Q13">
-        <v>14.61699884966565</v>
+        <v>18.28710545276022</v>
       </c>
       <c r="R13">
-        <v>14.61699884966565</v>
+        <v>164.583949074842</v>
       </c>
       <c r="S13">
-        <v>7.439810662964403E-05</v>
+        <v>7.193023575108162E-05</v>
       </c>
       <c r="T13">
-        <v>7.439810662964403E-05</v>
+        <v>7.19302357510816E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>37.8703380622684</v>
+        <v>38.809555</v>
       </c>
       <c r="H14">
-        <v>37.8703380622684</v>
+        <v>116.428665</v>
       </c>
       <c r="I14">
-        <v>0.4002671553520131</v>
+        <v>0.3897496018394196</v>
       </c>
       <c r="J14">
-        <v>0.4002671553520131</v>
+        <v>0.3897496018394196</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>10.1430223545417</v>
+        <v>141.0704656666667</v>
       </c>
       <c r="N14">
-        <v>10.1430223545417</v>
+        <v>423.211397</v>
       </c>
       <c r="O14">
-        <v>0.004884501871924219</v>
+        <v>0.05525296614535039</v>
       </c>
       <c r="P14">
-        <v>0.004884501871924219</v>
+        <v>0.05525296614535039</v>
       </c>
       <c r="Q14">
-        <v>384.1196855396398</v>
+        <v>5474.881996166113</v>
       </c>
       <c r="R14">
-        <v>384.1196855396398</v>
+        <v>49273.93796549501</v>
       </c>
       <c r="S14">
-        <v>0.00195510566958669</v>
+        <v>0.02153482155559724</v>
       </c>
       <c r="T14">
-        <v>0.00195510566958669</v>
+        <v>0.02153482155559725</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>37.8703380622684</v>
+        <v>38.809555</v>
       </c>
       <c r="H15">
-        <v>37.8703380622684</v>
+        <v>116.428665</v>
       </c>
       <c r="I15">
-        <v>0.4002671553520131</v>
+        <v>0.3897496018394196</v>
       </c>
       <c r="J15">
-        <v>0.4002671553520131</v>
+        <v>0.3897496018394196</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>3.28844877114016</v>
+        <v>3.309554666666667</v>
       </c>
       <c r="N15">
-        <v>3.28844877114016</v>
+        <v>9.928663999999999</v>
       </c>
       <c r="O15">
-        <v>0.001583594476765478</v>
+        <v>0.001296250856544298</v>
       </c>
       <c r="P15">
-        <v>0.001583594476765478</v>
+        <v>0.001296250856544298</v>
       </c>
       <c r="Q15">
-        <v>124.534666663529</v>
+        <v>128.4423438615067</v>
       </c>
       <c r="R15">
-        <v>124.534666663529</v>
+        <v>1155.98109475356</v>
       </c>
       <c r="S15">
-        <v>0.0006338608564460776</v>
+        <v>0.0005052132552221469</v>
       </c>
       <c r="T15">
-        <v>0.0006338608564460776</v>
+        <v>0.000505213255222147</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>37.8703380622684</v>
+        <v>38.809555</v>
       </c>
       <c r="H16">
-        <v>37.8703380622684</v>
+        <v>116.428665</v>
       </c>
       <c r="I16">
-        <v>0.4002671553520131</v>
+        <v>0.3897496018394196</v>
       </c>
       <c r="J16">
-        <v>0.4002671553520131</v>
+        <v>0.3897496018394196</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>2062.61463490881</v>
+        <v>2408.188354666666</v>
       </c>
       <c r="N16">
-        <v>2062.61463490881</v>
+        <v>7224.565063999999</v>
       </c>
       <c r="O16">
-        <v>0.9932784029366947</v>
+        <v>0.9432133721485603</v>
       </c>
       <c r="P16">
-        <v>0.9932784029366947</v>
+        <v>0.9432133721485604</v>
       </c>
       <c r="Q16">
-        <v>78111.91351617895</v>
+        <v>93460.71840079551</v>
       </c>
       <c r="R16">
-        <v>78111.91351617895</v>
+        <v>841146.4656071595</v>
       </c>
       <c r="S16">
-        <v>0.3975767208160614</v>
+        <v>0.3676170362445176</v>
       </c>
       <c r="T16">
-        <v>0.3975767208160614</v>
+        <v>0.3676170362445177</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>37.8703380622684</v>
+        <v>38.809555</v>
       </c>
       <c r="H17">
-        <v>37.8703380622684</v>
+        <v>116.428665</v>
       </c>
       <c r="I17">
-        <v>0.4002671553520131</v>
+        <v>0.3897496018394196</v>
       </c>
       <c r="J17">
-        <v>0.4002671553520131</v>
+        <v>0.3897496018394196</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.5264126174293851</v>
+        <v>0.6061513333333334</v>
       </c>
       <c r="N17">
-        <v>0.5264126174293851</v>
+        <v>1.818454</v>
       </c>
       <c r="O17">
-        <v>0.0002535007146156032</v>
+        <v>0.0002374108495449545</v>
       </c>
       <c r="P17">
-        <v>0.0002535007146156032</v>
+        <v>0.0002374108495449545</v>
       </c>
       <c r="Q17">
-        <v>19.93542378229438</v>
+        <v>23.52446350932334</v>
       </c>
       <c r="R17">
-        <v>19.93542378229438</v>
+        <v>211.72017158391</v>
       </c>
       <c r="S17">
-        <v>0.00010146800991889</v>
+        <v>9.253078408250435E-05</v>
       </c>
       <c r="T17">
-        <v>0.00010146800991889</v>
+        <v>9.253078408250436E-05</v>
       </c>
     </row>
   </sheetData>
